--- a/pred_ohlcv/54_21/2020-01-16 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 LTC ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-1700.668937</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1452.651237</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1456.688637</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1429.741037</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1470.393337</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1470.393337</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1516.042737</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1730.252437</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1555.182437</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1419.57209592</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1951.38097843</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1553.01537843</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-589.3882784299996</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-588.5322784299996</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1092.035847990001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1217.84154799</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1012.52094799</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>775.9555479900005</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>583.4304479900004</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>501.8563479900004</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1072.372647990001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1054.352647990001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1082.529347990001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1097.260247990001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1037.533747990001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>913.5001503800006</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>881.6336503800006</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>794.7941503800006</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>852.2202503800006</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>824.1212503800006</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>824.1851503800006</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>789.7617503800005</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>608.6386503800005</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>591.7499503800005</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>554.3004503800006</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>460.2915503800006</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>707.9607790600005</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>865.5489790600005</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>687.6784790600005</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>662.2082790600006</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>720.2192790600005</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>796.2862790600005</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>680.9915790600005</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-68.39360165999946</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-62.95330165999946</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-175.1027016599995</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-159.0141016599995</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>71.58339834000051</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>209.5000983400005</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>107.7757983400005</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>109.7757983400005</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>130.7160983400005</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>462.0282983400006</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>652.4386983400005</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1329.820998340001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1083.946098340001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1312.720198340001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1155.379798340001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1213.200798340001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1208.472798340001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1036.873698340001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1061.77719834</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1046.66069834</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1083.62199834</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>999.5458977400006</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1204.045897740001</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1143.47639774</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1462.59989774</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1611.69919774</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>817.8535977400006</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>423.2192977400006</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>196.3117977400006</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>487.2824977400006</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>297.6830977400006</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>297.6830977400006</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>297.6830977400006</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>338.7430977400006</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>19.4940977400006</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>37.0072977400006</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>228.6460977400006</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>81.31809774000058</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>328.2530977400007</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>331.6787977400007</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-336.8357236099994</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-336.8357236099994</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-326.4618236099994</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-326.4618236099994</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-325.5522236099994</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-325.8758236099994</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-309.5565236099994</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-250.9556236099994</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-250.9709236099994</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-240.8951236099994</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-52.6146236099994</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-112.7960012199994</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-72.7499012199994</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-10.5933012199994</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-172.2692012199994</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-75.04879465999942</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-75.04879465999942</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-75.04879465999942</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-49.31759465999941</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>5220.75472314</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>5316.81352314</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>5299.98832314</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>4921.10552389</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>4166.87522389</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>3804.63872389</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3562.74622389</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3562.74622389</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3410.82732389</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3216.49852389</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3189.38362389</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>2597.20582389</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2068.36072389</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-3184.20059777</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-3166.39539777</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-3202.38081383</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-3185.46671383</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-3190.26671383</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-2979.91471383</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-2904.36141383</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-2904.36141383</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-2904.36141383</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-2904.36141383</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-2903.82621383</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-2362.15084708</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-2255.15084708</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-2255.43854708</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-2219.05564708</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-2224.68514708</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-2224.68514708</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-2224.68514708</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-2221.59434708</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-2168.81734708</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-2111.76264708</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-2111.76264708</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-2111.76264708</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-2151.71264708</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-2074.62204708</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-2062.72204708</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-2052.72204708</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-1983.76270414</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-1993.67240414</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-1744.21110414</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-1562.73190414</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-1640.30620414</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-1493.74787372</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-1365.47950414</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-1367.47950414</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-1364.03390414</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-1364.03390414</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-1066.77310414</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-2349.30034478</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-2344.65964478</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-2349.15964478</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-2367.98884478</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-2368.24114478</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-2368.153733300001</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-2358.2573333</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-2353.980233300001</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-2353.980233300001</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-2354.020233300001</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-2631.396133300001</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-2631.436133300001</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-2630.436133300001</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 LTC ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-1516.042737</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1730.252437</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1555.182437</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1419.57209592</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1951.38097843</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1553.01537843</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-589.3882784299996</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-594.2742784299995</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-592.5508784299996</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-588.5322784299996</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-408.2239784299995</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-257.3918784299996</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1092.035847990001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1217.84154799</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1012.52094799</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>775.9555479900005</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>583.4304479900004</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>501.8563479900004</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1072.372647990001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1054.352647990001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1082.529347990001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1097.260247990001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1037.533747990001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>913.5001503800006</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>881.6336503800006</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>794.7941503800006</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>852.2202503800006</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>824.1212503800006</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>824.1851503800006</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>789.7617503800005</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>608.6386503800005</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>591.7499503800005</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>554.3004503800006</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>460.2915503800006</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>707.9607790600005</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>865.5489790600005</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>687.6784790600005</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>662.2082790600006</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>720.2192790600005</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>796.2862790600005</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>680.9915790600005</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-68.39360165999946</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-62.95330165999946</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-175.1027016599995</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-159.0141016599995</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>71.58339834000051</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>209.5000983400005</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>107.7757983400005</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>109.7757983400005</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>130.7160983400005</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>462.0282983400006</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>652.4386983400005</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1329.820998340001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1083.946098340001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1312.720198340001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1155.379798340001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1213.200798340001</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1208.472798340001</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1036.873698340001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1061.77719834</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1046.66069834</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1083.62199834</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>999.5458977400006</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1204.045897740001</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1143.47639774</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1462.59989774</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1611.69919774</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>817.8535977400006</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>423.2192977400006</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>196.3117977400006</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>487.2824977400006</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>297.6830977400006</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>297.6830977400006</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>297.6830977400006</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>338.7430977400006</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>19.4940977400006</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>37.0072977400006</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>228.6460977400006</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>81.31809774000058</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>328.2530977400007</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>331.6787977400007</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-336.8357236099994</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-336.8357236099994</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-326.4618236099994</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-326.4618236099994</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-325.5522236099994</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-325.8758236099994</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-309.5565236099994</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-250.9556236099994</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-250.9709236099994</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-240.8951236099994</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-52.6146236099994</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-112.7960012199994</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-72.7499012199994</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-10.5933012199994</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-172.2692012199994</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-75.04879465999942</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-75.04879465999942</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-75.04879465999942</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-49.31759465999941</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>5220.75472314</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>5316.81352314</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>5299.98832314</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>4921.10552389</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>4166.87522389</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>3804.63872389</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3562.74622389</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3562.74622389</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3410.82732389</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3216.49852389</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3189.38362389</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-2957.19519777</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-3132.98219777</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-3238.43449777</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-3238.43449777</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-3294.02639777</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-3186.23059777</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-3192.43059777</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-2936.35741383</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-2807.76541383</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-2798.32841383</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-2728.82201694</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-2591.88751694</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-2591.88751694</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-2289.62401694</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-2289.62401694</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-2407.41901694</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-2340.86651379</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-2344.12391694</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-2377.53141694</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-2377.53141694</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-2377.52341694</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-2400.60604993</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-2437.21794993</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-2422.77174993</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-2569.13634993</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-2569.13634993</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-2569.13634993</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-2569.13634993</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-2537.24194993</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-2638.84455349</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-2137.62065349</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-2139.02065349</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-2139.02065349</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-2128.54434708</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-2389.45764708</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-2222.07374708</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-2364.17574708</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-2362.15084708</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-2362.15084708</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-2255.15084708</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-2255.43854708</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-2219.05564708</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-2224.68514708</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-2224.68514708</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-2224.68514708</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-2221.59434708</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-2168.81734708</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-2111.76264708</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-2111.76264708</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-2111.76264708</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-2151.71264708</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-2074.62204708</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-2062.72204708</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-2052.72204708</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-1983.76270414</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-1993.67240414</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-1744.21110414</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-1562.73190414</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-1640.30620414</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-1493.74787372</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-1365.47950414</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-1367.47950414</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-1364.03390414</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-1364.03390414</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-1066.77310414</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-2349.30034478</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-2344.65964478</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-2349.15964478</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-2367.98884478</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-2368.24114478</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-2368.153733300001</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-2358.2573333</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-2353.980233300001</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-2353.980233300001</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-2354.020233300001</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-2631.396133300001</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-2631.436133300001</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-2630.436133300001</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-2842.655333300001</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-2957.439133300001</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-2950.312733300001</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-2950.312733300001</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-2850.312733300001</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-2849.108333300001</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-2858.203533300001</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-2848.203533300001</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-2861.184833300001</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-2808.443433300001</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-2742.247533300001</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-2739.113033300001</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-2739.113033300001</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-2533.970033300001</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-2486.3818333</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-2358.1300333</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-2358.1300333</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-2321.0999333</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-2316.066033300001</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-2316.066033300001</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-2346.0210333</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-2346.0210333</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-2346.0210333</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-2338.9431333</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-2344.4970333</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-2393.8271333</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-2434.3071333</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-2612.8691333</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-2603.2469333</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-2614.0481333</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-2614.0481333</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-2614.0481333</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-2609.4064333</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-2609.4064333</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-2605.7792333</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-2631.3453333</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-2631.3453333</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-2593.3323333</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-2592.4529333</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-2592.4529333</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-2589.5983333</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-2589.898333300001</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-2420.256733300001</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-2420.256733300001</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-2349.231333300001</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-2349.231333300001</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-2349.231333300001</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-2327.237233300001</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-2320.186433300001</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-2242.738433300001</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-2019.188433300001</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-2018.879433300001</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-2018.934733300001</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-2002.350733300001</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-2002.350733300001</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-2027.299333300001</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-1968.755633300001</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-1968.740177350001</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-1971.846977350001</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-1971.846977350001</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-1561.080777350001</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
